--- a/excel/V-Lookup/VLOOKUP-Challenge-START.xlsx
+++ b/excel/V-Lookup/VLOOKUP-Challenge-START.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\DA\Weekly Projects\skills_practice\excel\V-Lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381F3F5-A059-4F03-A618-08D11A3E325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448800E6-9F58-4D07-9271-AADBAA357F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="692" activeTab="5" xr2:uid="{6A7E37AF-E742-4C9D-9C4F-1DB72F508344}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="692" firstSheet="3" activeTab="8" xr2:uid="{6A7E37AF-E742-4C9D-9C4F-1DB72F508344}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="9" r:id="rId1"/>
@@ -10074,6 +10074,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -10086,9 +10089,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11161,14 +11161,16 @@
     <tableColumn id="11" xr3:uid="{8EAA7CE0-D880-4765-9F5B-893033CB9DD6}" name="Region"/>
     <tableColumn id="21" xr3:uid="{C503D0ED-A940-4B9A-AD98-A8B0CD40CF2E}" name="Product Name"/>
     <tableColumn id="24" xr3:uid="{D68025CE-6A68-4320-BF62-2836320C049E}" name="Revenue"/>
-    <tableColumn id="26" xr3:uid="{1150F7EA-E57D-48DF-84DB-5AB98AAC1D59}" name="Product Category" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{1150F7EA-E57D-48DF-84DB-5AB98AAC1D59}" name="Product Category" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(E4, 'Category Table'!$A$2:$B$18,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CB24E32-79ED-4F7C-BE74-0CCE030B2216}" name="tblCategory" displayName="tblCategory" ref="A1:B18" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0CB24E32-79ED-4F7C-BE74-0CCE030B2216}" name="tblCategory" displayName="tblCategory" ref="A1:B18" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B18" xr:uid="{4D9B5346-AD03-4D9B-86FA-7B9E0F528CC3}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{FF070C6F-C3E9-4BF8-B5A3-7D9C4EF711C7}" name="Product Name"/>
@@ -19101,7 +19103,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="52" t="str">
-        <f t="shared" ref="C5:D19" si="0">VLOOKUP(B5,$E$4:$G$1003,3,FALSE)</f>
+        <f t="shared" ref="C5:C19" si="0">VLOOKUP(B5,$E$4:$G$1003,3,FALSE)</f>
         <v>jsheeda@mlb.com</v>
       </c>
       <c r="E5" s="40" t="s">
@@ -30206,8 +30208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33176FA4-7E7D-43C0-A699-A26CF1E57E23}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30300,9 +30302,9 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="e">
-        <f>VLOOKUP(C5,E11:J28,4,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C9" s="4">
+        <f>VLOOKUP(C5,E9:J26,4,FALSE)</f>
+        <v>61234</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>9</v>
@@ -30330,9 +30332,9 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="e">
-        <f>VLOOKUP(C5,E12:J29,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C10" s="4" t="str">
+        <f>VLOOKUP(C5,E9:J26,5,FALSE)</f>
+        <v>LA</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>13</v>
@@ -30360,9 +30362,9 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="e">
-        <f>VLOOKUP(C5,E13:J30,6,FALSE)</f>
-        <v>#N/A</v>
+      <c r="C11" s="4" t="str">
+        <f>VLOOKUP(C5,E9:J26,6,FALSE)</f>
+        <v>(790) 838-4646</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>1</v>
@@ -30697,7 +30699,7 @@
   <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30758,6 +30760,10 @@
       <c r="F4" s="23">
         <v>686</v>
       </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(E4, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -30778,6 +30784,10 @@
       <c r="F5" s="23">
         <v>164.5</v>
       </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(E5, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -30798,6 +30808,10 @@
       <c r="F6" s="23">
         <v>2070</v>
       </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(E6, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -30818,6 +30832,10 @@
       <c r="F7" s="23">
         <v>4717</v>
       </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(E7, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -30838,6 +30856,10 @@
       <c r="F8" s="23">
         <v>38.5</v>
       </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(E8, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -30858,6 +30880,10 @@
       <c r="F9" s="23">
         <v>1458</v>
       </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(E9, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -30878,6 +30904,10 @@
       <c r="F10" s="23">
         <v>2024</v>
       </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(E10, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -30898,6 +30928,10 @@
       <c r="F11" s="23">
         <v>349.59999999999997</v>
       </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(E11, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -30918,6 +30952,10 @@
       <c r="F12" s="23">
         <v>809.59999999999991</v>
       </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(E12, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -30938,6 +30976,10 @@
       <c r="F13" s="23">
         <v>1198.5</v>
       </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(E13, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -30958,6 +31000,10 @@
       <c r="F14" s="23">
         <v>878.15</v>
       </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(E14, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -30978,6 +31024,10 @@
       <c r="F15" s="23">
         <v>1280</v>
       </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(E15, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -30998,8 +31048,12 @@
       <c r="F16" s="23">
         <v>2530</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>VLOOKUP(E16, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1014</v>
       </c>
@@ -31018,8 +31072,12 @@
       <c r="F17" s="23">
         <v>599.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>VLOOKUP(E17, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1015</v>
       </c>
@@ -31038,8 +31096,12 @@
       <c r="F18" s="23">
         <v>269.10000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f>VLOOKUP(E18, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1016</v>
       </c>
@@ -31058,8 +31120,12 @@
       <c r="F19" s="23">
         <v>1104</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>VLOOKUP(E19, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1017</v>
       </c>
@@ -31078,8 +31144,12 @@
       <c r="F20" s="23">
         <v>850</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f>VLOOKUP(E20, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1018</v>
       </c>
@@ -31098,8 +31168,12 @@
       <c r="F21" s="23">
         <v>374</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>VLOOKUP(E21, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1019</v>
       </c>
@@ -31118,8 +31192,12 @@
       <c r="F22" s="23">
         <v>404.79999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f>VLOOKUP(E22, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -31138,8 +31216,12 @@
       <c r="F23" s="23">
         <v>283.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f>VLOOKUP(E23, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1021</v>
       </c>
@@ -31158,8 +31240,12 @@
       <c r="F24" s="23">
         <v>146.51000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>VLOOKUP(E24, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1022</v>
       </c>
@@ -31178,8 +31264,12 @@
       <c r="F25" s="23">
         <v>756</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>VLOOKUP(E25, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1023</v>
       </c>
@@ -31198,8 +31288,12 @@
       <c r="F26" s="23">
         <v>2668</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f>VLOOKUP(E26, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1024</v>
       </c>
@@ -31218,8 +31312,12 @@
       <c r="F27" s="23">
         <v>200.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f>VLOOKUP(E27, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1025</v>
       </c>
@@ -31238,8 +31336,12 @@
       <c r="F28" s="23">
         <v>965</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f>VLOOKUP(E28, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1026</v>
       </c>
@@ -31258,8 +31360,12 @@
       <c r="F29" s="23">
         <v>1159.1999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>VLOOKUP(E29, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -31278,8 +31384,12 @@
       <c r="F30" s="23">
         <v>2818.7999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f>VLOOKUP(E30, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -31298,8 +31408,12 @@
       <c r="F31" s="23">
         <v>994</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f>VLOOKUP(E31, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -31318,8 +31432,12 @@
       <c r="F32" s="23">
         <v>1280</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f>VLOOKUP(E32, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -31338,8 +31456,12 @@
       <c r="F33" s="23">
         <v>630</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f>VLOOKUP(E33, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -31358,8 +31480,12 @@
       <c r="F34" s="23">
         <v>1200</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f>VLOOKUP(E34, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -31375,8 +31501,12 @@
       <c r="F35" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="e">
+        <f>VLOOKUP(E35, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -31392,8 +31522,12 @@
       <c r="F36" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="e">
+        <f>VLOOKUP(E36, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -31409,8 +31543,12 @@
       <c r="F37" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="e">
+        <f>VLOOKUP(E37, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -31429,8 +31567,12 @@
       <c r="F38" s="23">
         <v>470</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="e">
+        <f>VLOOKUP(E38, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -31449,8 +31591,12 @@
       <c r="F39" s="23">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f>VLOOKUP(E39, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -31469,8 +31615,12 @@
       <c r="F40" s="23">
         <v>2880</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f>VLOOKUP(E40, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -31489,8 +31639,12 @@
       <c r="F41" s="23">
         <v>239.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>VLOOKUP(E41, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -31509,8 +31663,12 @@
       <c r="F42" s="23">
         <v>1472</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f>VLOOKUP(E42, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -31529,8 +31687,12 @@
       <c r="F43" s="23">
         <v>260.55</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f>VLOOKUP(E43, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -31549,8 +31711,12 @@
       <c r="F44" s="23">
         <v>905.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f>VLOOKUP(E44, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -31569,8 +31735,12 @@
       <c r="F45" s="23">
         <v>165.75</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f>VLOOKUP(E45, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -31589,8 +31759,12 @@
       <c r="F46" s="23">
         <v>2156</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f>VLOOKUP(E46, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -31609,8 +31783,12 @@
       <c r="F47" s="23">
         <v>525</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f>VLOOKUP(E47, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -31629,8 +31807,12 @@
       <c r="F48" s="23">
         <v>1014</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="e">
+        <f>VLOOKUP(E48, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -31649,8 +31831,12 @@
       <c r="F49" s="23">
         <v>2880</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f>VLOOKUP(E49, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -31669,8 +31855,12 @@
       <c r="F50" s="23">
         <v>848</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f>VLOOKUP(E50, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -31689,8 +31879,12 @@
       <c r="F51" s="23">
         <v>224.25000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f>VLOOKUP(E51, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1053</v>
       </c>
@@ -31709,8 +31903,12 @@
       <c r="F52" s="23">
         <v>382.79999999999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f>VLOOKUP(E52, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1054</v>
       </c>
@@ -31729,8 +31927,12 @@
       <c r="F53" s="23">
         <v>742</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="e">
+        <f>VLOOKUP(E53, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1055</v>
       </c>
@@ -31749,8 +31951,12 @@
       <c r="F54" s="23">
         <v>3400</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f>VLOOKUP(E54, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1056</v>
       </c>
@@ -31769,8 +31975,12 @@
       <c r="F55" s="23">
         <v>892.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f>VLOOKUP(E55, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1057</v>
       </c>
@@ -31789,8 +31999,12 @@
       <c r="F56" s="23">
         <v>460</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="e">
+        <f>VLOOKUP(E56, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1059</v>
       </c>
@@ -31809,8 +32023,12 @@
       <c r="F57" s="23">
         <v>936.05000000000007</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f>VLOOKUP(E57, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1060</v>
       </c>
@@ -31829,8 +32047,12 @@
       <c r="F58" s="23">
         <v>1196</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f>VLOOKUP(E58, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1061</v>
       </c>
@@ -31849,8 +32071,12 @@
       <c r="F59" s="23">
         <v>1008</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="e">
+        <f>VLOOKUP(E59, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1062</v>
       </c>
@@ -31869,8 +32095,12 @@
       <c r="F60" s="23">
         <v>204</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f>VLOOKUP(E60, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1064</v>
       </c>
@@ -31889,8 +32119,12 @@
       <c r="F61" s="23">
         <v>6237</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="e">
+        <f>VLOOKUP(E61, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1067</v>
       </c>
@@ -31909,8 +32143,12 @@
       <c r="F62" s="23">
         <v>2192.3999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f>VLOOKUP(E62, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1070</v>
       </c>
@@ -31929,8 +32167,12 @@
       <c r="F63" s="23">
         <v>480</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f>VLOOKUP(E63, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1071</v>
       </c>
@@ -31949,8 +32191,12 @@
       <c r="F64" s="23">
         <v>2840</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f>VLOOKUP(E64, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1075</v>
       </c>
@@ -31969,8 +32215,12 @@
       <c r="F65" s="23">
         <v>550</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="e">
+        <f>VLOOKUP(E65, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1077</v>
       </c>
@@ -31989,8 +32239,12 @@
       <c r="F66" s="23">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f>VLOOKUP(E66, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1078</v>
       </c>
@@ -32009,8 +32263,12 @@
       <c r="F67" s="23">
         <v>2680</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f>VLOOKUP(E67, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1079</v>
       </c>
@@ -32029,8 +32287,12 @@
       <c r="F68" s="23">
         <v>1380</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f>VLOOKUP(E68, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1080</v>
       </c>
@@ -32049,8 +32311,12 @@
       <c r="F69" s="23">
         <v>782</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
+        <f>VLOOKUP(E69, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1081</v>
       </c>
@@ -32069,8 +32335,12 @@
       <c r="F70" s="23">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f>VLOOKUP(E70, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1082</v>
       </c>
@@ -32089,8 +32359,12 @@
       <c r="F71" s="23">
         <v>1332</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f>VLOOKUP(E71, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1083</v>
       </c>
@@ -32109,8 +32383,12 @@
       <c r="F72" s="23">
         <v>4416</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f>VLOOKUP(E72, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1084</v>
       </c>
@@ -32129,8 +32407,12 @@
       <c r="F73" s="23">
         <v>110.39999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f>VLOOKUP(E73, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1085</v>
       </c>
@@ -32149,8 +32431,12 @@
       <c r="F74" s="23">
         <v>570.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f>VLOOKUP(E74, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1086</v>
       </c>
@@ -32169,8 +32455,12 @@
       <c r="F75" s="23">
         <v>446.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f>VLOOKUP(E75, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1087</v>
       </c>
@@ -32189,8 +32479,12 @@
       <c r="F76" s="23">
         <v>916.75</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="str">
+        <f>VLOOKUP(E76, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1088</v>
       </c>
@@ -32209,8 +32503,12 @@
       <c r="F77" s="23">
         <v>680</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f>VLOOKUP(E77, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1089</v>
       </c>
@@ -32229,8 +32527,12 @@
       <c r="F78" s="23">
         <v>4416</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="str">
+        <f>VLOOKUP(E78, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1090</v>
       </c>
@@ -32249,8 +32551,12 @@
       <c r="F79" s="23">
         <v>1058.25</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="str">
+        <f>VLOOKUP(E79, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1091</v>
       </c>
@@ -32269,8 +32575,12 @@
       <c r="F80" s="23">
         <v>263.12</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="str">
+        <f>VLOOKUP(E80, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1092</v>
       </c>
@@ -32289,8 +32599,12 @@
       <c r="F81" s="23">
         <v>2714</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="str">
+        <f>VLOOKUP(E81, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1093</v>
       </c>
@@ -32309,8 +32623,12 @@
       <c r="F82" s="23">
         <v>675</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="str">
+        <f>VLOOKUP(E82, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1094</v>
       </c>
@@ -32329,8 +32647,12 @@
       <c r="F83" s="23">
         <v>814</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="str">
+        <f>VLOOKUP(E83, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1095</v>
       </c>
@@ -32349,8 +32671,12 @@
       <c r="F84" s="23">
         <v>690</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="str">
+        <f>VLOOKUP(E84, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1096</v>
       </c>
@@ -32369,8 +32695,12 @@
       <c r="F85" s="23">
         <v>248.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="str">
+        <f>VLOOKUP(E85, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1097</v>
       </c>
@@ -32389,8 +32719,12 @@
       <c r="F86" s="23">
         <v>263.12</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="str">
+        <f>VLOOKUP(E86, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1098</v>
       </c>
@@ -32409,8 +32743,12 @@
       <c r="F87" s="23">
         <v>990</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="str">
+        <f>VLOOKUP(E87, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1099</v>
       </c>
@@ -32429,8 +32767,12 @@
       <c r="F88" s="23">
         <v>178.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="str">
+        <f>VLOOKUP(E88, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1100</v>
       </c>
@@ -32449,8 +32791,12 @@
       <c r="F89" s="23">
         <v>414.95</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="str">
+        <f>VLOOKUP(E89, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1101</v>
       </c>
@@ -32469,8 +32815,12 @@
       <c r="F90" s="23">
         <v>2520</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="str">
+        <f>VLOOKUP(E90, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1102</v>
       </c>
@@ -32489,8 +32839,12 @@
       <c r="F91" s="23">
         <v>1656</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="str">
+        <f>VLOOKUP(E91, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1103</v>
       </c>
@@ -32509,8 +32863,12 @@
       <c r="F92" s="23">
         <v>522.75</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="str">
+        <f>VLOOKUP(E92, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1104</v>
       </c>
@@ -32529,8 +32887,12 @@
       <c r="F93" s="23">
         <v>104.65</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="str">
+        <f>VLOOKUP(E93, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1105</v>
       </c>
@@ -32549,8 +32911,12 @@
       <c r="F94" s="23">
         <v>1426</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="str">
+        <f>VLOOKUP(E94, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1106</v>
       </c>
@@ -32569,8 +32935,12 @@
       <c r="F95" s="23">
         <v>1300</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="str">
+        <f>VLOOKUP(E95, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1107</v>
       </c>
@@ -32589,8 +32959,12 @@
       <c r="F96" s="23">
         <v>660</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="str">
+        <f>VLOOKUP(E96, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1108</v>
       </c>
@@ -32609,8 +32983,12 @@
       <c r="F97" s="23">
         <v>377.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="str">
+        <f>VLOOKUP(E97, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1109</v>
       </c>
@@ -32629,8 +33007,12 @@
       <c r="F98" s="23">
         <v>154</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="str">
+        <f>VLOOKUP(E98, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1110</v>
       </c>
@@ -32649,8 +33031,12 @@
       <c r="F99" s="23">
         <v>230.23000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="str">
+        <f>VLOOKUP(E99, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1111</v>
       </c>
@@ -32669,8 +33055,12 @@
       <c r="F100" s="23">
         <v>522</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="str">
+        <f>VLOOKUP(E100, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1112</v>
       </c>
@@ -32689,8 +33079,12 @@
       <c r="F101" s="23">
         <v>3542</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="str">
+        <f>VLOOKUP(E101, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1113</v>
       </c>
@@ -32709,8 +33103,12 @@
       <c r="F102" s="23">
         <v>218.27</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="str">
+        <f>VLOOKUP(E102, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1114</v>
       </c>
@@ -32729,8 +33127,12 @@
       <c r="F103" s="23">
         <v>714.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="str">
+        <f>VLOOKUP(E103, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1115</v>
       </c>
@@ -32749,8 +33151,12 @@
       <c r="F104" s="23">
         <v>459.99999999999994</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="str">
+        <f>VLOOKUP(E104, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1117</v>
       </c>
@@ -32769,8 +33175,12 @@
       <c r="F105" s="23">
         <v>1287.5999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="str">
+        <f>VLOOKUP(E105, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1118</v>
       </c>
@@ -32789,8 +33199,12 @@
       <c r="F106" s="23">
         <v>1176</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="e">
+        <f>VLOOKUP(E106, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1119</v>
       </c>
@@ -32809,8 +33223,12 @@
       <c r="F107" s="23">
         <v>2920</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="str">
+        <f>VLOOKUP(E107, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1120</v>
       </c>
@@ -32829,8 +33247,12 @@
       <c r="F108" s="23">
         <v>469.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="str">
+        <f>VLOOKUP(E108, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1121</v>
       </c>
@@ -32849,8 +33271,12 @@
       <c r="F109" s="23">
         <v>660</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="e">
+        <f>VLOOKUP(E109, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1123</v>
       </c>
@@ -32869,8 +33295,12 @@
       <c r="F110" s="23">
         <v>839.55000000000007</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="str">
+        <f>VLOOKUP(E110, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1124</v>
       </c>
@@ -32889,8 +33319,12 @@
       <c r="F111" s="23">
         <v>1177.5999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="str">
+        <f>VLOOKUP(E111, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1125</v>
       </c>
@@ -32909,8 +33343,12 @@
       <c r="F112" s="23">
         <v>294</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="e">
+        <f>VLOOKUP(E112, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1126</v>
       </c>
@@ -32929,8 +33367,12 @@
       <c r="F113" s="23">
         <v>242.25</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="str">
+        <f>VLOOKUP(E113, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1128</v>
       </c>
@@ -32949,8 +33391,12 @@
       <c r="F114" s="23">
         <v>1863</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="e">
+        <f>VLOOKUP(E114, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1131</v>
       </c>
@@ -32969,8 +33415,12 @@
       <c r="F115" s="23">
         <v>765.59999999999991</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="str">
+        <f>VLOOKUP(E115, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1134</v>
       </c>
@@ -32989,8 +33439,12 @@
       <c r="F116" s="23">
         <v>820</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="str">
+        <f>VLOOKUP(E116, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1135</v>
       </c>
@@ -33009,8 +33463,12 @@
       <c r="F117" s="23">
         <v>3920</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="str">
+        <f>VLOOKUP(E117, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1138</v>
       </c>
@@ -33029,8 +33487,12 @@
       <c r="F118" s="23">
         <v>3266</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="str">
+        <f>VLOOKUP(E118, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1139</v>
       </c>
@@ -33049,8 +33511,12 @@
       <c r="F119" s="23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="str">
+        <f>VLOOKUP(E119, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1140</v>
       </c>
@@ -33069,8 +33535,12 @@
       <c r="F120" s="23">
         <v>1760</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="str">
+        <f>VLOOKUP(E120, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1141</v>
       </c>
@@ -33089,8 +33559,12 @@
       <c r="F121" s="23">
         <v>349.59999999999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="str">
+        <f>VLOOKUP(E121, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1142</v>
       </c>
@@ -33109,8 +33583,12 @@
       <c r="F122" s="23">
         <v>98</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="str">
+        <f>VLOOKUP(E122, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1143</v>
       </c>
@@ -33129,8 +33607,12 @@
       <c r="F123" s="23">
         <v>179.4</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="str">
+        <f>VLOOKUP(E123, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1144</v>
       </c>
@@ -33149,8 +33631,12 @@
       <c r="F124" s="23">
         <v>594</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" t="str">
+        <f>VLOOKUP(E124, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1145</v>
       </c>
@@ -33169,8 +33655,12 @@
       <c r="F125" s="23">
         <v>1012</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="str">
+        <f>VLOOKUP(E125, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1146</v>
       </c>
@@ -33189,8 +33679,12 @@
       <c r="F126" s="23">
         <v>152.49</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="str">
+        <f>VLOOKUP(E126, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1147</v>
       </c>
@@ -33209,8 +33703,12 @@
       <c r="F127" s="23">
         <v>579</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="str">
+        <f>VLOOKUP(E127, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1148</v>
       </c>
@@ -33229,8 +33727,12 @@
       <c r="F128" s="23">
         <v>1803.1999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="str">
+        <f>VLOOKUP(E128, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1150</v>
       </c>
@@ -33249,8 +33751,12 @@
       <c r="F129" s="23">
         <v>3062.3999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="str">
+        <f>VLOOKUP(E129, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1151</v>
       </c>
@@ -33269,8 +33775,12 @@
       <c r="F130" s="23">
         <v>910</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="e">
+        <f>VLOOKUP(E130, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1152</v>
       </c>
@@ -33289,8 +33799,12 @@
       <c r="F131" s="23">
         <v>1520</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="str">
+        <f>VLOOKUP(E131, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1153</v>
       </c>
@@ -33309,8 +33823,12 @@
       <c r="F132" s="23">
         <v>736</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="str">
+        <f>VLOOKUP(E132, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1154</v>
       </c>
@@ -33329,8 +33847,12 @@
       <c r="F133" s="23">
         <v>490</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="e">
+        <f>VLOOKUP(E133, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1156</v>
       </c>
@@ -33349,8 +33871,12 @@
       <c r="F134" s="23">
         <v>579</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="str">
+        <f>VLOOKUP(E134, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1157</v>
       </c>
@@ -33369,8 +33895,12 @@
       <c r="F135" s="23">
         <v>717.59999999999991</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="str">
+        <f>VLOOKUP(E135, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1158</v>
       </c>
@@ -33389,8 +33919,12 @@
       <c r="F136" s="23">
         <v>1106</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="e">
+        <f>VLOOKUP(E136, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1159</v>
       </c>
@@ -33409,8 +33943,12 @@
       <c r="F137" s="23">
         <v>561</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="str">
+        <f>VLOOKUP(E137, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1161</v>
       </c>
@@ -33429,8 +33967,12 @@
       <c r="F138" s="23">
         <v>7938</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="e">
+        <f>VLOOKUP(E138, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1164</v>
       </c>
@@ -33449,8 +33991,12 @@
       <c r="F139" s="23">
         <v>1044</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="str">
+        <f>VLOOKUP(E139, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1167</v>
       </c>
@@ -33469,8 +34015,12 @@
       <c r="F140" s="23">
         <v>240</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="str">
+        <f>VLOOKUP(E140, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1168</v>
       </c>
@@ -33489,8 +34039,12 @@
       <c r="F141" s="23">
         <v>1120</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="str">
+        <f>VLOOKUP(E141, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1172</v>
       </c>
@@ -33509,8 +34063,12 @@
       <c r="F142" s="23">
         <v>740</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="e">
+        <f>VLOOKUP(E142, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1174</v>
       </c>
@@ -33529,8 +34087,12 @@
       <c r="F143" s="23">
         <v>315</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="str">
+        <f>VLOOKUP(E143, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1175</v>
       </c>
@@ -33549,8 +34111,12 @@
       <c r="F144" s="23">
         <v>1080</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="str">
+        <f>VLOOKUP(E144, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1176</v>
       </c>
@@ -33569,8 +34135,12 @@
       <c r="F145" s="23">
         <v>1306.3999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="str">
+        <f>VLOOKUP(E145, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1177</v>
       </c>
@@ -33589,8 +34159,12 @@
       <c r="F146" s="23">
         <v>3404</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="str">
+        <f>VLOOKUP(E146, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1178</v>
       </c>
@@ -33609,8 +34183,12 @@
       <c r="F147" s="23">
         <v>733.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="str">
+        <f>VLOOKUP(E147, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1179</v>
       </c>
@@ -33629,8 +34207,12 @@
       <c r="F148" s="23">
         <v>1224</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="str">
+        <f>VLOOKUP(E148, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1180</v>
       </c>
@@ -33649,8 +34231,12 @@
       <c r="F149" s="23">
         <v>1173</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="str">
+        <f>VLOOKUP(E149, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1181</v>
       </c>
@@ -33669,8 +34255,12 @@
       <c r="F150" s="23">
         <v>2046</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="str">
+        <f>VLOOKUP(E150, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1182</v>
       </c>
@@ -33689,8 +34279,12 @@
       <c r="F151" s="23">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="str">
+        <f>VLOOKUP(E151, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1183</v>
       </c>
@@ -33709,8 +34303,12 @@
       <c r="F152" s="23">
         <v>3822</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="e">
+        <f>VLOOKUP(E152, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1184</v>
       </c>
@@ -33729,8 +34327,12 @@
       <c r="F153" s="23">
         <v>1380</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="str">
+        <f>VLOOKUP(E153, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1185</v>
       </c>
@@ -33749,8 +34351,12 @@
       <c r="F154" s="23">
         <v>742</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="str">
+        <f>VLOOKUP(E154, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1187</v>
       </c>
@@ -33769,8 +34375,12 @@
       <c r="F155" s="23">
         <v>263.12</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="str">
+        <f>VLOOKUP(E155, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1188</v>
       </c>
@@ -33789,8 +34399,12 @@
       <c r="F156" s="23">
         <v>242.19000000000003</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="str">
+        <f>VLOOKUP(E156, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1189</v>
       </c>
@@ -33809,8 +34423,12 @@
       <c r="F157" s="23">
         <v>318.45</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="str">
+        <f>VLOOKUP(E157, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1190</v>
       </c>
@@ -33829,8 +34447,12 @@
       <c r="F158" s="23">
         <v>864.8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="str">
+        <f>VLOOKUP(E158, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1192</v>
       </c>
@@ -33849,8 +34471,12 @@
       <c r="F159" s="23">
         <v>939.59999999999991</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" t="str">
+        <f>VLOOKUP(E159, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1193</v>
       </c>
@@ -33869,8 +34495,12 @@
       <c r="F160" s="23">
         <v>1176</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="e">
+        <f>VLOOKUP(E160, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1194</v>
       </c>
@@ -33889,8 +34519,12 @@
       <c r="F161" s="23">
         <v>3640</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="str">
+        <f>VLOOKUP(E161, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1195</v>
       </c>
@@ -33909,8 +34543,12 @@
       <c r="F162" s="23">
         <v>331.2</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" t="str">
+        <f>VLOOKUP(E162, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1196</v>
       </c>
@@ -33929,8 +34567,12 @@
       <c r="F163" s="23">
         <v>340</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" t="e">
+        <f>VLOOKUP(E163, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1198</v>
       </c>
@@ -33949,8 +34591,12 @@
       <c r="F164" s="23">
         <v>241.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" t="str">
+        <f>VLOOKUP(E164, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1199</v>
       </c>
@@ -33969,8 +34615,12 @@
       <c r="F165" s="23">
         <v>220.79999999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" t="str">
+        <f>VLOOKUP(E165, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1200</v>
       </c>
@@ -33989,8 +34639,12 @@
       <c r="F166" s="23">
         <v>322</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="e">
+        <f>VLOOKUP(E166, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1201</v>
       </c>
@@ -34009,8 +34663,12 @@
       <c r="F167" s="23">
         <v>969</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" t="str">
+        <f>VLOOKUP(E167, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1203</v>
       </c>
@@ -34029,8 +34687,12 @@
       <c r="F168" s="23">
         <v>4455</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" t="e">
+        <f>VLOOKUP(E168, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1206</v>
       </c>
@@ -34049,8 +34711,12 @@
       <c r="F169" s="23">
         <v>939.59999999999991</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" t="str">
+        <f>VLOOKUP(E169, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1209</v>
       </c>
@@ -34069,8 +34735,12 @@
       <c r="F170" s="23">
         <v>990</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="str">
+        <f>VLOOKUP(E170, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1210</v>
       </c>
@@ -34089,8 +34759,12 @@
       <c r="F171" s="23">
         <v>400</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" t="str">
+        <f>VLOOKUP(E171, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1214</v>
       </c>
@@ -34109,8 +34783,12 @@
       <c r="F172" s="23">
         <v>800</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="e">
+        <f>VLOOKUP(E172, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1216</v>
       </c>
@@ -34129,8 +34807,12 @@
       <c r="F173" s="23">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="str">
+        <f>VLOOKUP(E173, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1217</v>
       </c>
@@ -34149,8 +34831,12 @@
       <c r="F174" s="23">
         <v>3880</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="str">
+        <f>VLOOKUP(E174, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1218</v>
       </c>
@@ -34169,8 +34855,12 @@
       <c r="F175" s="23">
         <v>772.8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="str">
+        <f>VLOOKUP(E175, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1219</v>
       </c>
@@ -34189,8 +34879,12 @@
       <c r="F176" s="23">
         <v>1104</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="str">
+        <f>VLOOKUP(E176, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1220</v>
       </c>
@@ -34209,8 +34903,12 @@
       <c r="F177" s="23">
         <v>868.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="str">
+        <f>VLOOKUP(E177, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1221</v>
       </c>
@@ -34229,8 +34927,12 @@
       <c r="F178" s="23">
         <v>357</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="str">
+        <f>VLOOKUP(E178, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1222</v>
       </c>
@@ -34249,8 +34951,12 @@
       <c r="F179" s="23">
         <v>1288</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="str">
+        <f>VLOOKUP(E179, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1223</v>
       </c>
@@ -34269,8 +34975,12 @@
       <c r="F180" s="23">
         <v>726.75</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="str">
+        <f>VLOOKUP(E180, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1224</v>
       </c>
@@ -34289,8 +34999,12 @@
       <c r="F181" s="23">
         <v>68.77000000000001</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="str">
+        <f>VLOOKUP(E181, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1225</v>
       </c>
@@ -34309,8 +35023,12 @@
       <c r="F182" s="23">
         <v>3956</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="str">
+        <f>VLOOKUP(E182, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1226</v>
       </c>
@@ -34329,8 +35047,12 @@
       <c r="F183" s="23">
         <v>1175</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="str">
+        <f>VLOOKUP(E183, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1227</v>
       </c>
@@ -34349,8 +35071,12 @@
       <c r="F184" s="23">
         <v>2134</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="str">
+        <f>VLOOKUP(E184, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1228</v>
       </c>
@@ -34369,8 +35095,12 @@
       <c r="F185" s="23">
         <v>883.19999999999993</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="str">
+        <f>VLOOKUP(E185, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1229</v>
       </c>
@@ -34389,8 +35119,12 @@
       <c r="F186" s="23">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="str">
+        <f>VLOOKUP(E186, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1230</v>
       </c>
@@ -34409,8 +35143,12 @@
       <c r="F187" s="23">
         <v>155.48000000000002</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="str">
+        <f>VLOOKUP(E187, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1231</v>
       </c>
@@ -34429,8 +35167,12 @@
       <c r="F188" s="23">
         <v>1638</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="str">
+        <f>VLOOKUP(E188, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1232</v>
       </c>
@@ -34449,8 +35191,12 @@
       <c r="F189" s="23">
         <v>644</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="str">
+        <f>VLOOKUP(E189, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1233</v>
       </c>
@@ -34469,8 +35215,12 @@
       <c r="F190" s="23">
         <v>131.56</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="str">
+        <f>VLOOKUP(E190, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1234</v>
       </c>
@@ -34489,8 +35239,12 @@
       <c r="F191" s="23">
         <v>936.05000000000007</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="str">
+        <f>VLOOKUP(E191, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1235</v>
       </c>
@@ -34509,8 +35263,12 @@
       <c r="F192" s="23">
         <v>1472</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="str">
+        <f>VLOOKUP(E192, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1237</v>
       </c>
@@ -34529,8 +35287,12 @@
       <c r="F193" s="23">
         <v>1113.5999999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="str">
+        <f>VLOOKUP(E193, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1238</v>
       </c>
@@ -34549,8 +35311,12 @@
       <c r="F194" s="23">
         <v>728</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="e">
+        <f>VLOOKUP(E194, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1239</v>
       </c>
@@ -34569,8 +35335,12 @@
       <c r="F195" s="23">
         <v>3120</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="str">
+        <f>VLOOKUP(E195, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1240</v>
       </c>
@@ -34589,8 +35359,12 @@
       <c r="F196" s="23">
         <v>496.79999999999995</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="str">
+        <f>VLOOKUP(E196, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1241</v>
       </c>
@@ -34609,8 +35383,12 @@
       <c r="F197" s="23">
         <v>550</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="e">
+        <f>VLOOKUP(E197, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1243</v>
       </c>
@@ -34629,8 +35407,12 @@
       <c r="F198" s="23">
         <v>183.35</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="str">
+        <f>VLOOKUP(E198, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1244</v>
       </c>
@@ -34649,8 +35431,12 @@
       <c r="F199" s="23">
         <v>1214.3999999999999</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="str">
+        <f>VLOOKUP(E199, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1245</v>
       </c>
@@ -34669,8 +35455,12 @@
       <c r="F200" s="23">
         <v>588</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" t="e">
+        <f>VLOOKUP(E200, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1246</v>
       </c>
@@ -34689,8 +35479,12 @@
       <c r="F201" s="23">
         <v>918</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" t="str">
+        <f>VLOOKUP(E201, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1248</v>
       </c>
@@ -34709,8 +35503,12 @@
       <c r="F202" s="23">
         <v>2592</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" t="e">
+        <f>VLOOKUP(E202, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1250</v>
       </c>
@@ -34729,8 +35527,12 @@
       <c r="F203" s="23">
         <v>763.59999999999991</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" t="str">
+        <f>VLOOKUP(E203, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1251</v>
       </c>
@@ -34749,8 +35551,12 @@
       <c r="F204" s="23">
         <v>318.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" t="str">
+        <f>VLOOKUP(E204, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1252</v>
       </c>
@@ -34769,8 +35575,12 @@
       <c r="F205" s="23">
         <v>191.36</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" t="str">
+        <f>VLOOKUP(E205, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1253</v>
       </c>
@@ -34789,8 +35599,12 @@
       <c r="F206" s="23">
         <v>1044</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" t="str">
+        <f>VLOOKUP(E206, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1254</v>
       </c>
@@ -34809,8 +35623,12 @@
       <c r="F207" s="23">
         <v>4462</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" t="str">
+        <f>VLOOKUP(E207, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1255</v>
       </c>
@@ -34829,8 +35647,12 @@
       <c r="F208" s="23">
         <v>41.86</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" t="str">
+        <f>VLOOKUP(E208, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1256</v>
       </c>
@@ -34849,8 +35671,12 @@
       <c r="F209" s="23">
         <v>656.2</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" t="str">
+        <f>VLOOKUP(E209, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1257</v>
       </c>
@@ -34869,8 +35695,12 @@
       <c r="F210" s="23">
         <v>588.79999999999995</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" t="str">
+        <f>VLOOKUP(E210, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1259</v>
       </c>
@@ -34889,8 +35719,12 @@
       <c r="F211" s="23">
         <v>1983.6</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="str">
+        <f>VLOOKUP(E211, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1260</v>
       </c>
@@ -34909,8 +35743,12 @@
       <c r="F212" s="23">
         <v>938</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="e">
+        <f>VLOOKUP(E212, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1261</v>
       </c>
@@ -34929,8 +35767,12 @@
       <c r="F213" s="23">
         <v>1920</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="str">
+        <f>VLOOKUP(E213, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1262</v>
       </c>
@@ -34949,8 +35791,12 @@
       <c r="F214" s="23">
         <v>708.4</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="str">
+        <f>VLOOKUP(E214, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1263</v>
       </c>
@@ -34969,8 +35815,12 @@
       <c r="F215" s="23">
         <v>940</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" t="e">
+        <f>VLOOKUP(E215, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1265</v>
       </c>
@@ -34989,8 +35839,12 @@
       <c r="F216" s="23">
         <v>414.95</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" t="str">
+        <f>VLOOKUP(E216, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1266</v>
       </c>
@@ -35009,8 +35863,12 @@
       <c r="F217" s="23">
         <v>1306.3999999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="str">
+        <f>VLOOKUP(E217, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1267</v>
       </c>
@@ -35029,8 +35887,12 @@
       <c r="F218" s="23">
         <v>700</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="e">
+        <f>VLOOKUP(E218, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1268</v>
       </c>
@@ -35049,8 +35911,12 @@
       <c r="F219" s="23">
         <v>1224</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="str">
+        <f>VLOOKUP(E219, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1270</v>
       </c>
@@ -35069,8 +35935,12 @@
       <c r="F220" s="23">
         <v>4374</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="e">
+        <f>VLOOKUP(E220, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1273</v>
       </c>
@@ -35089,8 +35959,12 @@
       <c r="F221" s="23">
         <v>2192.3999999999996</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="str">
+        <f>VLOOKUP(E221, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1276</v>
       </c>
@@ -35109,8 +35983,12 @@
       <c r="F222" s="23">
         <v>710</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="str">
+        <f>VLOOKUP(E222, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1277</v>
       </c>
@@ -35129,8 +36007,12 @@
       <c r="F223" s="23">
         <v>3520</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" t="str">
+        <f>VLOOKUP(E223, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1281</v>
       </c>
@@ -35149,8 +36031,12 @@
       <c r="F224" s="23">
         <v>590</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="e">
+        <f>VLOOKUP(E224, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1282</v>
       </c>
@@ -35169,8 +36055,12 @@
       <c r="F225" s="23">
         <v>3760</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="str">
+        <f>VLOOKUP(E225, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1283</v>
       </c>
@@ -35189,8 +36079,12 @@
       <c r="F226" s="23">
         <v>3956</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="str">
+        <f>VLOOKUP(E226, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1284</v>
       </c>
@@ -35209,8 +36103,12 @@
       <c r="F227" s="23">
         <v>777.75</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="str">
+        <f>VLOOKUP(E227, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1285</v>
       </c>
@@ -35229,8 +36127,12 @@
       <c r="F228" s="23">
         <v>95.68</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" t="str">
+        <f>VLOOKUP(E228, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1286</v>
       </c>
@@ -35249,8 +36151,12 @@
       <c r="F229" s="23">
         <v>2852</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" t="str">
+        <f>VLOOKUP(E229, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1287</v>
       </c>
@@ -35269,8 +36175,12 @@
       <c r="F230" s="23">
         <v>1500</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" t="str">
+        <f>VLOOKUP(E230, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1288</v>
       </c>
@@ -35289,8 +36199,12 @@
       <c r="F231" s="23">
         <v>1122</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="str">
+        <f>VLOOKUP(E231, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1289</v>
       </c>
@@ -35309,8 +36223,12 @@
       <c r="F232" s="23">
         <v>450.79999999999995</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" t="str">
+        <f>VLOOKUP(E232, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1290</v>
       </c>
@@ -35329,8 +36247,12 @@
       <c r="F233" s="23">
         <v>70</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="str">
+        <f>VLOOKUP(E233, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1291</v>
       </c>
@@ -35349,8 +36271,12 @@
       <c r="F234" s="23">
         <v>146.51000000000002</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="str">
+        <f>VLOOKUP(E234, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1292</v>
       </c>
@@ -35369,8 +36295,12 @@
       <c r="F235" s="23">
         <v>396</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="str">
+        <f>VLOOKUP(E235, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1293</v>
       </c>
@@ -35389,8 +36319,12 @@
       <c r="F236" s="23">
         <v>3358</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" t="str">
+        <f>VLOOKUP(E236, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1294</v>
       </c>
@@ -35409,8 +36343,12 @@
       <c r="F237" s="23">
         <v>254.15</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" t="str">
+        <f>VLOOKUP(E237, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1295</v>
       </c>
@@ -35429,8 +36367,12 @@
       <c r="F238" s="23">
         <v>424.6</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" t="str">
+        <f>VLOOKUP(E238, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1296</v>
       </c>
@@ -35449,8 +36391,12 @@
       <c r="F239" s="23">
         <v>441.59999999999997</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" t="str">
+        <f>VLOOKUP(E239, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1298</v>
       </c>
@@ -35469,8 +36415,12 @@
       <c r="F240" s="23">
         <v>2436</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" t="str">
+        <f>VLOOKUP(E240, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1299</v>
       </c>
@@ -35489,8 +36439,12 @@
       <c r="F241" s="23">
         <v>1372</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" t="e">
+        <f>VLOOKUP(E241, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1300</v>
       </c>
@@ -35509,8 +36463,12 @@
       <c r="F242" s="23">
         <v>1920</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" t="str">
+        <f>VLOOKUP(E242, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1301</v>
       </c>
@@ -35529,8 +36487,12 @@
       <c r="F243" s="23">
         <v>919.99999999999989</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" t="str">
+        <f>VLOOKUP(E243, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1302</v>
       </c>
@@ -35549,8 +36511,12 @@
       <c r="F244" s="23">
         <v>900</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" t="e">
+        <f>VLOOKUP(E244, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1304</v>
       </c>
@@ -35569,8 +36535,12 @@
       <c r="F245" s="23">
         <v>685.15</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" t="str">
+        <f>VLOOKUP(E245, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1305</v>
       </c>
@@ -35589,8 +36559,12 @@
       <c r="F246" s="23">
         <v>184</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" t="str">
+        <f>VLOOKUP(E246, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1306</v>
       </c>
@@ -35609,8 +36583,12 @@
       <c r="F247" s="23">
         <v>1092</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" t="e">
+        <f>VLOOKUP(E247, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1307</v>
       </c>
@@ -35629,8 +36607,12 @@
       <c r="F248" s="23">
         <v>561</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" t="str">
+        <f>VLOOKUP(E248, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1309</v>
       </c>
@@ -35649,8 +36631,12 @@
       <c r="F249" s="23">
         <v>6642</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" t="e">
+        <f>VLOOKUP(E249, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1312</v>
       </c>
@@ -35669,8 +36655,12 @@
       <c r="F250" s="23">
         <v>3236.3999999999996</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" t="str">
+        <f>VLOOKUP(E250, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1315</v>
       </c>
@@ -35689,8 +36679,12 @@
       <c r="F251" s="23">
         <v>110</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" t="str">
+        <f>VLOOKUP(E251, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1316</v>
       </c>
@@ -35709,8 +36703,12 @@
       <c r="F252" s="23">
         <v>3640</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" t="str">
+        <f>VLOOKUP(E252, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1320</v>
       </c>
@@ -35729,8 +36727,12 @@
       <c r="F253" s="23">
         <v>120</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" t="e">
+        <f>VLOOKUP(E253, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1322</v>
       </c>
@@ -35749,8 +36751,12 @@
       <c r="F254" s="23">
         <v>273</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" t="str">
+        <f>VLOOKUP(E254, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1323</v>
       </c>
@@ -35769,8 +36775,12 @@
       <c r="F255" s="23">
         <v>2400</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" t="str">
+        <f>VLOOKUP(E255, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1324</v>
       </c>
@@ -35789,8 +36799,12 @@
       <c r="F256" s="23">
         <v>423.2</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" t="str">
+        <f>VLOOKUP(E256, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1325</v>
       </c>
@@ -35809,8 +36823,12 @@
       <c r="F257" s="23">
         <v>1564</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" t="str">
+        <f>VLOOKUP(E257, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1326</v>
       </c>
@@ -35829,8 +36847,12 @@
       <c r="F258" s="23">
         <v>858.85</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" t="str">
+        <f>VLOOKUP(E258, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1327</v>
       </c>
@@ -35849,8 +36871,12 @@
       <c r="F259" s="23">
         <v>1045.5</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" t="str">
+        <f>VLOOKUP(E259, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1328</v>
       </c>
@@ -35869,8 +36895,12 @@
       <c r="F260" s="23">
         <v>548.25</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" t="str">
+        <f>VLOOKUP(E260, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1329</v>
       </c>
@@ -35889,8 +36919,12 @@
       <c r="F261" s="23">
         <v>2112</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" t="str">
+        <f>VLOOKUP(E261, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1330</v>
       </c>
@@ -35909,8 +36943,12 @@
       <c r="F262" s="23">
         <v>312.79999999999995</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" t="str">
+        <f>VLOOKUP(E262, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1331</v>
       </c>
@@ -35929,8 +36967,12 @@
       <c r="F263" s="23">
         <v>147</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" t="str">
+        <f>VLOOKUP(E263, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1332</v>
       </c>
@@ -35949,8 +36991,12 @@
       <c r="F264" s="23">
         <v>299</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" t="str">
+        <f>VLOOKUP(E264, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1333</v>
       </c>
@@ -35969,8 +37015,12 @@
       <c r="F265" s="23">
         <v>756</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" t="str">
+        <f>VLOOKUP(E265, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1334</v>
       </c>
@@ -35989,8 +37039,12 @@
       <c r="F266" s="23">
         <v>736</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" t="str">
+        <f>VLOOKUP(E266, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1335</v>
       </c>
@@ -36009,8 +37063,12 @@
       <c r="F267" s="23">
         <v>65.78</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" t="str">
+        <f>VLOOKUP(E267, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1336</v>
       </c>
@@ -36029,8 +37087,12 @@
       <c r="F268" s="23">
         <v>443.90000000000003</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" t="str">
+        <f>VLOOKUP(E268, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1337</v>
       </c>
@@ -36049,8 +37111,12 @@
       <c r="F269" s="23">
         <v>1839.9999999999998</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" t="str">
+        <f>VLOOKUP(E269, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1339</v>
       </c>
@@ -36069,8 +37135,12 @@
       <c r="F270" s="23">
         <v>2018.3999999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" t="str">
+        <f>VLOOKUP(E270, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1340</v>
       </c>
@@ -36089,8 +37159,12 @@
       <c r="F271" s="23">
         <v>1190</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" t="e">
+        <f>VLOOKUP(E271, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1341</v>
       </c>
@@ -36109,8 +37183,12 @@
       <c r="F272" s="23">
         <v>1120</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" t="str">
+        <f>VLOOKUP(E272, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1342</v>
       </c>
@@ -36129,8 +37207,12 @@
       <c r="F273" s="23">
         <v>174.79999999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" t="str">
+        <f>VLOOKUP(E273, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1343</v>
       </c>
@@ -36149,8 +37231,12 @@
       <c r="F274" s="23">
         <v>990</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" t="e">
+        <f>VLOOKUP(E274, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1345</v>
       </c>
@@ -36169,8 +37255,12 @@
       <c r="F275" s="23">
         <v>357.05</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" t="str">
+        <f>VLOOKUP(E275, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1346</v>
       </c>
@@ -36189,8 +37279,12 @@
       <c r="F276" s="23">
         <v>1177.5999999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" t="str">
+        <f>VLOOKUP(E276, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1347</v>
       </c>
@@ -36209,8 +37303,12 @@
       <c r="F277" s="23">
         <v>532</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" t="e">
+        <f>VLOOKUP(E277, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1348</v>
       </c>
@@ -36229,8 +37327,12 @@
       <c r="F278" s="23">
         <v>191.25</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" t="str">
+        <f>VLOOKUP(E278, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1350</v>
       </c>
@@ -36249,8 +37351,12 @@
       <c r="F279" s="23">
         <v>4212</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" t="e">
+        <f>VLOOKUP(E279, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1353</v>
       </c>
@@ -36269,8 +37375,12 @@
       <c r="F280" s="23">
         <v>835.19999999999993</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" t="str">
+        <f>VLOOKUP(E280, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1356</v>
       </c>
@@ -36289,8 +37399,12 @@
       <c r="F281" s="23">
         <v>360</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" t="str">
+        <f>VLOOKUP(E281, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1357</v>
       </c>
@@ -36309,8 +37423,12 @@
       <c r="F282" s="23">
         <v>960</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" t="str">
+        <f>VLOOKUP(E282, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1361</v>
       </c>
@@ -36329,8 +37447,12 @@
       <c r="F283" s="23">
         <v>200</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" t="e">
+        <f>VLOOKUP(E283, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1363</v>
       </c>
@@ -36349,8 +37471,12 @@
       <c r="F284" s="23">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" t="str">
+        <f>VLOOKUP(E284, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1364</v>
       </c>
@@ -36369,8 +37495,12 @@
       <c r="F285" s="23">
         <v>3120</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" t="str">
+        <f>VLOOKUP(E285, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1365</v>
       </c>
@@ -36389,8 +37519,12 @@
       <c r="F286" s="23">
         <v>1398.3999999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" t="str">
+        <f>VLOOKUP(E286, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1366</v>
       </c>
@@ -36409,8 +37543,12 @@
       <c r="F287" s="23">
         <v>2622</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" t="str">
+        <f>VLOOKUP(E287, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1367</v>
       </c>
@@ -36429,8 +37567,12 @@
       <c r="F288" s="23">
         <v>135.1</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" t="str">
+        <f>VLOOKUP(E288, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1368</v>
       </c>
@@ -36449,8 +37591,12 @@
       <c r="F289" s="23">
         <v>196</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" t="e">
+        <f>VLOOKUP(E289, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1369</v>
       </c>
@@ -36469,8 +37615,12 @@
       <c r="F290" s="23">
         <v>245</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" t="str">
+        <f>VLOOKUP(E290, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1370</v>
       </c>
@@ -36489,8 +37639,12 @@
       <c r="F291" s="23">
         <v>3000</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" t="str">
+        <f>VLOOKUP(E291, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1371</v>
       </c>
@@ -36509,8 +37663,12 @@
       <c r="F292" s="23">
         <v>1431</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" t="str">
+        <f>VLOOKUP(E292, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1372</v>
       </c>
@@ -36529,8 +37687,12 @@
       <c r="F293" s="23">
         <v>245</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" t="str">
+        <f>VLOOKUP(E293, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1373</v>
       </c>
@@ -36549,8 +37711,12 @@
       <c r="F294" s="23">
         <v>1026</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" t="str">
+        <f>VLOOKUP(E294, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1374</v>
       </c>
@@ -36569,8 +37735,12 @@
       <c r="F295" s="23">
         <v>3818</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" t="str">
+        <f>VLOOKUP(E295, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1375</v>
       </c>
@@ -36589,8 +37759,12 @@
       <c r="F296" s="23">
         <v>699.19999999999993</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" t="str">
+        <f>VLOOKUP(E296, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1376</v>
       </c>
@@ -36609,8 +37783,12 @@
       <c r="F297" s="23">
         <v>736</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" t="str">
+        <f>VLOOKUP(E297, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1377</v>
       </c>
@@ -36629,8 +37807,12 @@
       <c r="F298" s="23">
         <v>599.25</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" t="str">
+        <f>VLOOKUP(E298, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1378</v>
       </c>
@@ -36649,8 +37831,12 @@
       <c r="F299" s="23">
         <v>926.40000000000009</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" t="str">
+        <f>VLOOKUP(E299, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1379</v>
       </c>
@@ -36669,8 +37855,12 @@
       <c r="F300" s="23">
         <v>1280</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" t="str">
+        <f>VLOOKUP(E300, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1380</v>
       </c>
@@ -36689,8 +37879,12 @@
       <c r="F301" s="23">
         <v>736</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" t="str">
+        <f>VLOOKUP(E301, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1381</v>
       </c>
@@ -36709,8 +37903,12 @@
       <c r="F302" s="23">
         <v>522.75</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" t="str">
+        <f>VLOOKUP(E302, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1382</v>
       </c>
@@ -36729,8 +37927,12 @@
       <c r="F303" s="23">
         <v>122.59</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" t="str">
+        <f>VLOOKUP(E303, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1383</v>
       </c>
@@ -36749,8 +37951,12 @@
       <c r="F304" s="23">
         <v>1886</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" t="str">
+        <f>VLOOKUP(E304, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1384</v>
       </c>
@@ -36769,8 +37975,12 @@
       <c r="F305" s="23">
         <v>2350</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" t="str">
+        <f>VLOOKUP(E305, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1385</v>
       </c>
@@ -36789,8 +37999,12 @@
       <c r="F306" s="23">
         <v>440</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" t="str">
+        <f>VLOOKUP(E306, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1386</v>
       </c>
@@ -36809,8 +38023,12 @@
       <c r="F307" s="23">
         <v>119.6</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" t="str">
+        <f>VLOOKUP(E307, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1387</v>
       </c>
@@ -36829,8 +38047,12 @@
       <c r="F308" s="23">
         <v>259</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" t="str">
+        <f>VLOOKUP(E308, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1388</v>
       </c>
@@ -36849,8 +38071,12 @@
       <c r="F309" s="23">
         <v>158.47</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" t="str">
+        <f>VLOOKUP(E309, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1389</v>
       </c>
@@ -36869,8 +38095,12 @@
       <c r="F310" s="23">
         <v>1782</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" t="str">
+        <f>VLOOKUP(E310, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1390</v>
       </c>
@@ -36889,8 +38119,12 @@
       <c r="F311" s="23">
         <v>4094</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" t="str">
+        <f>VLOOKUP(E311, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1391</v>
       </c>
@@ -36909,8 +38143,12 @@
       <c r="F312" s="23">
         <v>191.36</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" t="str">
+        <f>VLOOKUP(E312, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1392</v>
       </c>
@@ -36929,8 +38167,12 @@
       <c r="F313" s="23">
         <v>945.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" t="str">
+        <f>VLOOKUP(E313, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1393</v>
       </c>
@@ -36949,8 +38191,12 @@
       <c r="F314" s="23">
         <v>1582.3999999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" t="str">
+        <f>VLOOKUP(E314, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1395</v>
       </c>
@@ -36969,8 +38215,12 @@
       <c r="F315" s="23">
         <v>2401.1999999999998</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" t="str">
+        <f>VLOOKUP(E315, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1396</v>
       </c>
@@ -36989,8 +38239,12 @@
       <c r="F316" s="23">
         <v>952</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" t="e">
+        <f>VLOOKUP(E316, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1397</v>
       </c>
@@ -37009,8 +38263,12 @@
       <c r="F317" s="23">
         <v>2080</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" t="str">
+        <f>VLOOKUP(E317, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1398</v>
       </c>
@@ -37029,8 +38287,12 @@
       <c r="F318" s="23">
         <v>368</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" t="str">
+        <f>VLOOKUP(E318, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Baked Goods &amp; Mixes</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1399</v>
       </c>
@@ -37049,8 +38311,12 @@
       <c r="F319" s="23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" t="e">
+        <f>VLOOKUP(E319, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1401</v>
       </c>
@@ -37069,8 +38335,12 @@
       <c r="F320" s="23">
         <v>443.90000000000003</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" t="str">
+        <f>VLOOKUP(E320, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1402</v>
       </c>
@@ -37089,8 +38359,12 @@
       <c r="F321" s="23">
         <v>1711.1999999999998</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" t="str">
+        <f>VLOOKUP(E321, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1403</v>
       </c>
@@ -37109,8 +38383,12 @@
       <c r="F322" s="23">
         <v>1344</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" t="e">
+        <f>VLOOKUP(E322, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1404</v>
       </c>
@@ -37129,8 +38407,12 @@
       <c r="F323" s="23">
         <v>153</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" t="str">
+        <f>VLOOKUP(E323, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1406</v>
       </c>
@@ -37149,8 +38431,12 @@
       <c r="F324" s="23">
         <v>3078</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" t="e">
+        <f>VLOOKUP(E324, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1409</v>
       </c>
@@ -37169,8 +38455,12 @@
       <c r="F325" s="23">
         <v>3479.9999999999995</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" t="str">
+        <f>VLOOKUP(E325, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dairy Products</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1412</v>
       </c>
@@ -37189,8 +38479,12 @@
       <c r="F326" s="23">
         <v>890</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" t="str">
+        <f>VLOOKUP(E326, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1413</v>
       </c>
@@ -37209,8 +38503,12 @@
       <c r="F327" s="23">
         <v>480</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" t="str">
+        <f>VLOOKUP(E327, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1417</v>
       </c>
@@ -37229,8 +38527,12 @@
       <c r="F328" s="23">
         <v>970</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" t="e">
+        <f>VLOOKUP(E328, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1419</v>
       </c>
@@ -37249,8 +38551,12 @@
       <c r="F329" s="23">
         <v>185.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" t="str">
+        <f>VLOOKUP(E329, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1420</v>
       </c>
@@ -37269,8 +38575,12 @@
       <c r="F330" s="23">
         <v>2440</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" t="str">
+        <f>VLOOKUP(E330, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Sauces</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1421</v>
       </c>
@@ -37289,8 +38599,12 @@
       <c r="F331" s="23">
         <v>827.99999999999989</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" t="str">
+        <f>VLOOKUP(E331, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Canned Meat</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1422</v>
       </c>
@@ -37309,8 +38623,12 @@
       <c r="F332" s="23">
         <v>1978</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" t="str">
+        <f>VLOOKUP(E332, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1423</v>
       </c>
@@ -37329,8 +38647,12 @@
       <c r="F333" s="23">
         <v>173.70000000000002</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" t="str">
+        <f>VLOOKUP(E333, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Soups</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1424</v>
       </c>
@@ -37349,8 +38671,12 @@
       <c r="F334" s="23">
         <v>522.75</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" t="str">
+        <f>VLOOKUP(E334, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1425</v>
       </c>
@@ -37369,8 +38695,12 @@
       <c r="F335" s="23">
         <v>242.25</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" t="str">
+        <f>VLOOKUP(E335, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Candy</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1426</v>
       </c>
@@ -37389,8 +38719,12 @@
       <c r="F336" s="23">
         <v>1430</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" t="str">
+        <f>VLOOKUP(E336, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Condiments</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1427</v>
       </c>
@@ -37409,8 +38743,12 @@
       <c r="F337" s="23">
         <v>325</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" t="str">
+        <f>VLOOKUP(E337, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Jams, Preserves</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1428</v>
       </c>
@@ -37429,8 +38767,12 @@
       <c r="F338" s="23">
         <v>2106</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" t="e">
+        <f>VLOOKUP(E338, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1429</v>
       </c>
@@ -37449,8 +38791,12 @@
       <c r="F339" s="23">
         <v>990</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" t="str">
+        <f>VLOOKUP(E339, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1430</v>
       </c>
@@ -37469,8 +38815,12 @@
       <c r="F340" s="23">
         <v>1802</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340" t="str">
+        <f>VLOOKUP(E340, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Dried Fruit &amp; Nuts</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1432</v>
       </c>
@@ -37488,6 +38838,10 @@
       </c>
       <c r="F341" s="23">
         <v>71.760000000000005</v>
+      </c>
+      <c r="G341" t="str">
+        <f>VLOOKUP(E341, 'Category Table'!$A$2:$B$18,2,FALSE)</f>
+        <v>Beverages</v>
       </c>
     </row>
   </sheetData>
@@ -37668,7 +39022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C2BD61-D102-4A69-BBF5-D5E559EF1076}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
